--- a/medicine/Sexualité et sexologie/La_Fièvre_dans_le_sang/La_Fièvre_dans_le_sang.xlsx
+++ b/medicine/Sexualité et sexologie/La_Fièvre_dans_le_sang/La_Fièvre_dans_le_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fièvre dans le sang (Splendor in the Grass) est un film américain réalisé par Elia Kazan, sorti en 1961.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une petite ville du Kansas, en 1928. Deux jeunes gens, Deanie (Natalie Wood) et Bud (Warren Beatty), sont amoureux l'un de l'autre. Ils sont confrontés à deux obstacles : Ace (Pat Hingle), le père de Bud, riche homme d'affaires, a d'ambitieux projets pour son fils, — l'envoyer étudier à la prestigieuse université Yale, alors que celui-ci voudrait simplement faire une école d'agriculture pour reprendre le ranch de son père et surtout épouser Deanie sans tarder. Deanie, issue d'une famille de classe moyenne, se voit contrainte, surtout par sa mère, de respecter la morale conservatrice dominante et de ne faire aucun écart de conduite avant le mariage.  
 Dans une petite ville où tout le monde se dérobe devant leurs questions pourtant pressantes —  médecins, prêtres, parents — l'histoire est celle de ces deux jeunes adultes qui éprouvent l'un pour l'autre un amour sincère et puissant mais qui doivent lutter contre son expression sexuelle naturelle, leur projet de mariage étant différé par les ambitions du père de Bud pour son fils, leur couple ne résistera pas à une telle pression sociale et psychique. Pour préserver Deanie, Bud préfère ne plus la voir (« ça fait mal » dit-il au médecin) et il a une aventure avec une fille facile ; Deanie entre alors en crise, tente de se suicider et est finalement envoyée dans un établissement de soins psychiatriques. Bud, de son côté, décide d'obéir à son père et part étudier à l'université Yale, mais ne fait rien pour réussir ses études, et rencontre Angelina une serveuse italienne . 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Fièvre dans le sang
 Titre original : Splendor in the Grass
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Natalie Wood  (VF : Jeanine Freson)  : Wilma Dean 'Deanie' Loomis
 Warren Beatty (VF : Michel Le Royer) : Bud Stamper
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +656,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oscar du meilleurs scénario pour William Inge</t>
         </is>
@@ -650,7 +670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Fi%C3%A8vre_dans_le_sang</t>
+          <t>La_Fièvre_dans_le_sang</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,7 +688,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les acteurs Warren Beatty et Natalie Wood tombent amoureux durant le tournage du film ; mais cette relation ne durera pas puisque Warren, incorrigible homme à femmes, délaissera son amante pour une autre actrice.
 William Inge, le scénariste du film joue le petit rôle du révérend pour lequel il n'a pas été crédité</t>
